--- a/data-raw/toronto-harbour-habitat-data/detection_station_id_detected.xlsx
+++ b/data-raw/toronto-harbour-habitat-data/detection_station_id_detected.xlsx
@@ -1,136 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\data-raw\toronto-harbour-habitat-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D32093F-0F20-428E-81EE-E4319636AA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t xml:space="preserve">station_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glatos_array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW-078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE3-037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAG-032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAG-031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAT-015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAT-021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAT-018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAT-017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAS-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF-051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOI-047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEG-029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEG-028</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+  <si>
+    <t>station_no</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>glatos_array</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>BBW-078</t>
+  </si>
+  <si>
+    <t>BBW</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>CE3-037</t>
+  </si>
+  <si>
+    <t>CE3</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>EAG-032</t>
+  </si>
+  <si>
+    <t>EAG</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>EAG-031</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>GAT-015</t>
+  </si>
+  <si>
+    <t>GAT</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>GAT-021</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>GAT-018</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>GAT-017</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>JAS-062</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>MWF-051</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>TOI-047</t>
+  </si>
+  <si>
+    <t>TOI</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>WEG-029</t>
+  </si>
+  <si>
+    <t>WEG</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>WEG-028</t>
+  </si>
+  <si>
+    <t>habitat_type</t>
+  </si>
+  <si>
+    <t>Exposed/Low SAV</t>
+  </si>
+  <si>
+    <t>Deep/Low SAV</t>
+  </si>
+  <si>
+    <t>Mod/Dense SAV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -166,6 +185,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -447,14 +475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +494,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -475,8 +508,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -486,8 +522,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -497,8 +536,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -508,8 +550,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -519,8 +564,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -530,8 +578,11 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -541,8 +592,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -552,8 +606,11 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -563,8 +620,11 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -574,8 +634,11 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -585,8 +648,11 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -596,8 +662,11 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -607,9 +676,12 @@
       <c r="C14" t="s">
         <v>34</v>
       </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data-raw/toronto-harbour-habitat-data/detection_station_id_detected.xlsx
+++ b/data-raw/toronto-harbour-habitat-data/detection_station_id_detected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CU\Data\toronto-lmb-np-accel\data-raw\toronto-harbour-habitat-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D32093F-0F20-428E-81EE-E4319636AA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4596C9CC-F815-4480-BC0A-D5BE79504F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>station_no</t>
   </si>
@@ -31,7 +31,10 @@
     <t>glatos_array</t>
   </si>
   <si>
-    <t>78</t>
+    <t>BBE-077</t>
+  </si>
+  <si>
+    <t>BBE</t>
   </si>
   <si>
     <t>BBW-078</t>
@@ -40,7 +43,10 @@
     <t>BBW</t>
   </si>
   <si>
-    <t>37</t>
+    <t>CE2-038</t>
+  </si>
+  <si>
+    <t>CE2</t>
   </si>
   <si>
     <t>CE3-037</t>
@@ -49,76 +55,157 @@
     <t>CE3</t>
   </si>
   <si>
-    <t>32</t>
+    <t>CHB-002</t>
+  </si>
+  <si>
+    <t>CHB</t>
+  </si>
+  <si>
+    <t>CHB-079</t>
+  </si>
+  <si>
+    <t>EAG-031</t>
+  </si>
+  <si>
+    <t>EAG</t>
   </si>
   <si>
     <t>EAG-032</t>
   </si>
   <si>
-    <t>EAG</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>EAG-031</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>EMA-014</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>EMB-013</t>
+  </si>
+  <si>
+    <t>EMB</t>
+  </si>
+  <si>
+    <t>EMC-036</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>EMC-010</t>
+  </si>
+  <si>
+    <t>EMC-009</t>
+  </si>
+  <si>
+    <t>EXG-052</t>
+  </si>
+  <si>
+    <t>EXG</t>
+  </si>
+  <si>
+    <t>FDS-071</t>
+  </si>
+  <si>
+    <t>FDS</t>
+  </si>
+  <si>
+    <t>GAT-019</t>
+  </si>
+  <si>
+    <t>GAT</t>
   </si>
   <si>
     <t>GAT-015</t>
   </si>
   <si>
-    <t>GAT</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>GAT-022</t>
+  </si>
+  <si>
+    <t>GAT-016</t>
   </si>
   <si>
     <t>GAT-021</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>GAT-018</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>GAT-017</t>
   </si>
   <si>
-    <t>62</t>
+    <t>JAS-064</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>JAS-065</t>
+  </si>
+  <si>
+    <t>JAS-066</t>
   </si>
   <si>
     <t>JAS-062</t>
   </si>
   <si>
-    <t>JAS</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>MWF-051</t>
   </si>
   <si>
     <t>MWF</t>
   </si>
   <si>
-    <t>47</t>
+    <t>OHM-001</t>
+  </si>
+  <si>
+    <t>OHM</t>
+  </si>
+  <si>
+    <t>PAS-056</t>
+  </si>
+  <si>
+    <t>PAS</t>
+  </si>
+  <si>
+    <t>SPS-076</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>TOI-040</t>
+  </si>
+  <si>
+    <t>TOI</t>
+  </si>
+  <si>
+    <t>TOI-041</t>
+  </si>
+  <si>
+    <t>TOI-042</t>
+  </si>
+  <si>
+    <t>TOI-027</t>
+  </si>
+  <si>
+    <t>TOI-044</t>
+  </si>
+  <si>
+    <t>TOI-043</t>
+  </si>
+  <si>
+    <t>TOI-045</t>
   </si>
   <si>
     <t>TOI-047</t>
   </si>
   <si>
-    <t>TOI</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>TOI-046</t>
+  </si>
+  <si>
+    <t>TUB-049</t>
+  </si>
+  <si>
+    <t>TUB</t>
   </si>
   <si>
     <t>WEG-029</t>
@@ -127,32 +214,132 @@
     <t>WEG</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>WEG-028</t>
   </si>
   <si>
+    <t>Billy Bishop W</t>
+  </si>
+  <si>
+    <t>Exposed/Low SAV</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>habitat_type</t>
   </si>
   <si>
-    <t>Exposed/Low SAV</t>
+    <t>Shallow/Low SAV</t>
+  </si>
+  <si>
+    <t>Cell 2</t>
+  </si>
+  <si>
+    <t>Cell 3</t>
   </si>
   <si>
     <t>Deep/Low SAV</t>
   </si>
   <si>
+    <t>Cherry Beach</t>
+  </si>
+  <si>
+    <t>Embayment A</t>
+  </si>
+  <si>
+    <t>Embayment B</t>
+  </si>
+  <si>
+    <t>Embayment C</t>
+  </si>
+  <si>
+    <t>Exhibition Grounds</t>
+  </si>
+  <si>
+    <t>Jarvis</t>
+  </si>
+  <si>
+    <t>Middle Waterfront</t>
+  </si>
+  <si>
+    <t>Outer Harbour Marina</t>
+  </si>
+  <si>
     <t>Mod/Dense SAV</t>
+  </si>
+  <si>
+    <t>Parliament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spadina </t>
+  </si>
+  <si>
+    <t>TI 40</t>
+  </si>
+  <si>
+    <t>Shallow/Dense SAV</t>
+  </si>
+  <si>
+    <t>TI 41</t>
+  </si>
+  <si>
+    <t>TI 42</t>
+  </si>
+  <si>
+    <t>TI 43</t>
+  </si>
+  <si>
+    <t>TI 44</t>
+  </si>
+  <si>
+    <t>TI 45</t>
+  </si>
+  <si>
+    <t>TI 46</t>
+  </si>
+  <si>
+    <t>TI 47</t>
+  </si>
+  <si>
+    <t>E Western Gap</t>
+  </si>
+  <si>
+    <t>W Western Gap</t>
+  </si>
+  <si>
+    <t>Turning Basin</t>
+  </si>
+  <si>
+    <t>Toronto Islands 27</t>
+  </si>
+  <si>
+    <t>Billy Bishop E</t>
+  </si>
+  <si>
+    <t>Fire Dock</t>
+  </si>
+  <si>
+    <t>Eastern Gap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,12 +361,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,209 +691,903 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
